--- a/public/download_template/template_ASN_PPPK.xlsx
+++ b/public/download_template/template_ASN_PPPK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.28\sikepeg\public\download_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikepeg\public\download_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8593A32-FF68-480A-9ACD-7D1A84C093FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4050D14C-76B9-4100-974D-21455007E759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06E26C27-E13F-45FD-A724-06945611AA76}"/>
+    <workbookView xWindow="2580" yWindow="2730" windowWidth="26220" windowHeight="11505" xr2:uid="{06E26C27-E13F-45FD-A724-06945611AA76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>NIK</t>
   </si>
@@ -108,10 +108,22 @@
     <t>[struktural,umum,nakes]</t>
   </si>
   <si>
-    <t>[PNS,PPPK,THL]</t>
-  </si>
-  <si>
-    <t>[ASN,NON ASN]</t>
+    <t>ASN</t>
+  </si>
+  <si>
+    <t>PPPK</t>
+  </si>
+  <si>
+    <t>[laki-laki,perempuan]</t>
+  </si>
+  <si>
+    <t>Titis</t>
+  </si>
+  <si>
+    <t>Esti</t>
+  </si>
+  <si>
+    <t>S.Tr</t>
   </si>
 </sst>
 </file>
@@ -162,12 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,30 +501,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2107FF81-8FC9-41A4-BE6A-67096025CCF7}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="5" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
     <col min="21" max="21" width="26.140625" customWidth="1"/>
-    <col min="22" max="22" width="24.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -535,7 +560,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -562,10 +587,10 @@
       <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -577,7 +602,7 @@
       <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -594,12 +619,20 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -607,17 +640,17 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2" t="s">
         <v>26</v>

--- a/public/download_template/template_ASN_PPPK.xlsx
+++ b/public/download_template/template_ASN_PPPK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikepeg\public\download_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4050D14C-76B9-4100-974D-21455007E759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{085DC2A2-9C78-463D-B9E4-497E01D2D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2730" windowWidth="26220" windowHeight="11505" xr2:uid="{06E26C27-E13F-45FD-A724-06945611AA76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37A18136-4116-42B0-B415-ABD08F8169C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>NIK</t>
   </si>
@@ -72,58 +81,88 @@
     <t>Thn Pensiun</t>
   </si>
   <si>
+    <t>Status Tipe</t>
+  </si>
+  <si>
+    <t>TMT PPPK</t>
+  </si>
+  <si>
+    <t>TMT Pangkat Terakhir</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Pend Sesuai SK Terakhir</t>
+  </si>
+  <si>
+    <t>Sekolah / Perguruan Tinggi</t>
+  </si>
+  <si>
+    <t>Tgl Lulus</t>
+  </si>
+  <si>
+    <t>No Ijazah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titis </t>
+  </si>
+  <si>
+    <t>Rahayu</t>
+  </si>
+  <si>
+    <t>S.M</t>
+  </si>
+  <si>
+    <t>[Perempuan, Laki-laki]</t>
+  </si>
+  <si>
+    <t>Banyuwangi</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>083992881000</t>
+  </si>
+  <si>
+    <t>[Aktif, Non Aktif}</t>
+  </si>
+  <si>
+    <t>Sayu Wiwit</t>
+  </si>
+  <si>
     <t>Status Tenaga</t>
   </si>
   <si>
-    <t>TMT PPPK</t>
-  </si>
-  <si>
-    <t>TMT Pangkat Terakhir</t>
-  </si>
-  <si>
-    <t>Sekolah / Perguruan Tinggi</t>
-  </si>
-  <si>
-    <t>Tgl Lulus</t>
-  </si>
-  <si>
-    <t>No Ijazah</t>
+    <t>ASN</t>
+  </si>
+  <si>
+    <t>PPPK</t>
+  </si>
+  <si>
+    <t>Gol II</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Universitas Malang</t>
+  </si>
+  <si>
+    <t>999-00</t>
+  </si>
+  <si>
+    <t>Jns Tenaga</t>
   </si>
   <si>
     <t>Jabatan</t>
   </si>
   <si>
-    <t>Gol</t>
-  </si>
-  <si>
-    <t>Jns Tenaga</t>
-  </si>
-  <si>
-    <t>Status Tipe</t>
-  </si>
-  <si>
-    <t>Pend Sesuai SK Terakhir</t>
-  </si>
-  <si>
-    <t>[struktural,umum,nakes]</t>
-  </si>
-  <si>
-    <t>ASN</t>
-  </si>
-  <si>
-    <t>PPPK</t>
-  </si>
-  <si>
-    <t>[laki-laki,perempuan]</t>
-  </si>
-  <si>
-    <t>Titis</t>
-  </si>
-  <si>
-    <t>Esti</t>
-  </si>
-  <si>
-    <t>S.Tr</t>
+    <t>[Struktural, Nakes, Umum]</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -176,15 +215,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,44 +533,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2107FF81-8FC9-41A4-BE6A-67096025CCF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7C482-6F19-4285-AAB0-DA090C63865E}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" customWidth="1"/>
+    <col min="21" max="21" width="26.5546875" customWidth="1"/>
+    <col min="22" max="22" width="32" customWidth="1"/>
+    <col min="23" max="23" width="24.88671875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="25.5546875" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +594,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -582,80 +616,116 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>978</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11123</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36161</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2"/>
+      <c r="O2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2">
+        <v>46910</v>
+      </c>
+      <c r="S2" s="2">
+        <v>46910</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="2">
+        <v>42495</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/download_template/template_ASN_PPPK.xlsx
+++ b/public/download_template/template_ASN_PPPK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikepeg\public\download_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{085DC2A2-9C78-463D-B9E4-497E01D2D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47A222-1DE0-47B9-A8D2-74D3C32F72A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37A18136-4116-42B0-B415-ABD08F8169C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37A18136-4116-42B0-B415-ABD08F8169C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,9 +87,6 @@
     <t>TMT Pangkat Terakhir</t>
   </si>
   <si>
-    <t>Gol</t>
-  </si>
-  <si>
     <t>Pend Sesuai SK Terakhir</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>PPPK</t>
   </si>
   <si>
-    <t>Gol II</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -163,6 +154,12 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>Pangkat Golongan</t>
+  </si>
+  <si>
+    <t>Pembina</t>
   </si>
 </sst>
 </file>
@@ -536,40 +533,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7C482-6F19-4285-AAB0-DA090C63865E}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="3" customWidth="1"/>
     <col min="19" max="19" width="21" style="3" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" customWidth="1"/>
-    <col min="21" max="21" width="26.5546875" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
     <col min="22" max="22" width="32" customWidth="1"/>
-    <col min="23" max="23" width="24.88671875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="25.5546875" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
+    <col min="25" max="25" width="25.5703125" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
@@ -628,28 +625,28 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>978</v>
       </c>
@@ -658,46 +655,46 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="2">
         <v>36161</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="O2" s="1">
         <v>2040</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="R2" s="2">
         <v>46910</v>
@@ -706,25 +703,25 @@
         <v>46910</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="W2" s="2">
         <v>42495</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
